--- a/Data/2020_10_30.xlsx
+++ b/Data/2020_10_30.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
-  <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-29 08:00 Uhr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+  <si>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-30 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -301,184 +301,154 @@
     <t xml:space="preserve">Inzidenz Quarantäne nach Einreise aus Risikoland</t>
   </si>
   <si>
-    <t xml:space="preserve">794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1308</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keine aktuellen Daten gemeldet</t>
   </si>
   <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5310</t>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">1279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4705</t>
+    <t xml:space="preserve">177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3061</t>
   </si>
 </sst>
 </file>
@@ -486,7 +456,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="50000" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -525,7 +495,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="50000" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,7 +787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -3947,10 +3917,10 @@
         <v>32690</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" t="n">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="F143" t="n">
         <v>2</v>
@@ -3973,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -3996,7 +3966,7 @@
         <v>7</v>
       </c>
       <c r="E145" t="n">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4019,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4042,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4065,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -4088,7 +4058,7 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>4113</v>
+        <v>4114</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4111,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -4134,7 +4104,7 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>4125</v>
+        <v>4126</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4157,7 +4127,7 @@
         <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -4180,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="E153" t="n">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4203,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -4226,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>4145</v>
+        <v>4146</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -4249,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -4272,7 +4242,7 @@
         <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -4295,7 +4265,7 @@
         <v>7</v>
       </c>
       <c r="E158" t="n">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -4318,7 +4288,7 @@
         <v>14</v>
       </c>
       <c r="E159" t="n">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -4341,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>4189</v>
+        <v>4190</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -4364,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="E161" t="n">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -4387,7 +4357,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="n">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -4410,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="E163" t="n">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -4433,7 +4403,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="n">
-        <v>4226</v>
+        <v>4227</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -4456,7 +4426,7 @@
         <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -4479,7 +4449,7 @@
         <v>8</v>
       </c>
       <c r="E166" t="n">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="F166" t="n">
         <v>2</v>
@@ -4502,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="E167" t="n">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -4525,7 +4495,7 @@
         <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -4548,7 +4518,7 @@
         <v>5</v>
       </c>
       <c r="E169" t="n">
-        <v>4255</v>
+        <v>4256</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -4571,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -4594,7 +4564,7 @@
         <v>7</v>
       </c>
       <c r="E171" t="n">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -4617,7 +4587,7 @@
         <v>11</v>
       </c>
       <c r="E172" t="n">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -4640,7 +4610,7 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -4663,7 +4633,7 @@
         <v>8</v>
       </c>
       <c r="E174" t="n">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -4686,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -4709,7 +4679,7 @@
         <v>8</v>
       </c>
       <c r="E176" t="n">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -4732,7 +4702,7 @@
         <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -4755,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="E178" t="n">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -4778,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="F179" t="n">
         <v>1</v>
@@ -4801,7 +4771,7 @@
         <v>7</v>
       </c>
       <c r="E180" t="n">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -4824,7 +4794,7 @@
         <v>8</v>
       </c>
       <c r="E181" t="n">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -4847,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="E182" t="n">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -4870,7 +4840,7 @@
         <v>9</v>
       </c>
       <c r="E183" t="n">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
@@ -4893,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -4916,7 +4886,7 @@
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -4936,10 +4906,10 @@
         <v>39595</v>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E186" t="n">
-        <v>4374</v>
+        <v>4376</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -4962,7 +4932,7 @@
         <v>8</v>
       </c>
       <c r="E187" t="n">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -4985,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="E188" t="n">
-        <v>4386</v>
+        <v>4388</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
@@ -5008,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4392</v>
+        <v>4394</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -5031,7 +5001,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4399</v>
+        <v>4401</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5054,7 +5024,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5077,7 +5047,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4410</v>
+        <v>4412</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5100,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4415</v>
+        <v>4417</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5123,7 +5093,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5146,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4426</v>
+        <v>4428</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5169,7 +5139,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4433</v>
+        <v>4435</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5192,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>4439</v>
+        <v>4441</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
@@ -5215,7 +5185,7 @@
         <v>10</v>
       </c>
       <c r="E198" t="n">
-        <v>4449</v>
+        <v>4451</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -5235,10 +5205,10 @@
         <v>43454</v>
       </c>
       <c r="D199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>4459</v>
+        <v>4462</v>
       </c>
       <c r="F199" t="n">
         <v>3</v>
@@ -5261,7 +5231,7 @@
         <v>9</v>
       </c>
       <c r="E200" t="n">
-        <v>4468</v>
+        <v>4471</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -5281,10 +5251,10 @@
         <v>44314</v>
       </c>
       <c r="D201" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="n">
-        <v>4477</v>
+        <v>4481</v>
       </c>
       <c r="F201" t="n">
         <v>2</v>
@@ -5307,7 +5277,7 @@
         <v>8</v>
       </c>
       <c r="E202" t="n">
-        <v>4485</v>
+        <v>4489</v>
       </c>
       <c r="F202" t="n">
         <v>2</v>
@@ -5330,7 +5300,7 @@
         <v>7</v>
       </c>
       <c r="E203" t="n">
-        <v>4492</v>
+        <v>4496</v>
       </c>
       <c r="F203" t="n">
         <v>3</v>
@@ -5353,7 +5323,7 @@
         <v>14</v>
       </c>
       <c r="E204" t="n">
-        <v>4506</v>
+        <v>4510</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -5376,7 +5346,7 @@
         <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>4513</v>
+        <v>4517</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
@@ -5399,7 +5369,7 @@
         <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>4524</v>
+        <v>4528</v>
       </c>
       <c r="F206" t="n">
         <v>7</v>
@@ -5419,10 +5389,10 @@
         <v>46598</v>
       </c>
       <c r="D207" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E207" t="n">
-        <v>4542</v>
+        <v>4548</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -5445,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="E208" t="n">
-        <v>4554</v>
+        <v>4560</v>
       </c>
       <c r="F208" t="n">
         <v>4</v>
@@ -5468,7 +5438,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>4567</v>
+        <v>4573</v>
       </c>
       <c r="F209" t="n">
         <v>3</v>
@@ -5491,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="E210" t="n">
-        <v>4578</v>
+        <v>4584</v>
       </c>
       <c r="F210" t="n">
         <v>1</v>
@@ -5514,7 +5484,7 @@
         <v>10</v>
       </c>
       <c r="E211" t="n">
-        <v>4588</v>
+        <v>4594</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -5534,10 +5504,10 @@
         <v>48593</v>
       </c>
       <c r="D212" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212" t="n">
-        <v>4598</v>
+        <v>4603</v>
       </c>
       <c r="F212" t="n">
         <v>3</v>
@@ -5557,10 +5527,10 @@
         <v>49109</v>
       </c>
       <c r="D213" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E213" t="n">
-        <v>4618</v>
+        <v>4624</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5580,10 +5550,10 @@
         <v>49607</v>
       </c>
       <c r="D214" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E214" t="n">
-        <v>4628</v>
+        <v>4636</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5603,10 +5573,10 @@
         <v>50052</v>
       </c>
       <c r="D215" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E215" t="n">
-        <v>4645</v>
+        <v>4654</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5626,10 +5596,10 @@
         <v>50337</v>
       </c>
       <c r="D216" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E216" t="n">
-        <v>4653</v>
+        <v>4663</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5652,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="n">
-        <v>4665</v>
+        <v>4675</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5675,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="E218" t="n">
-        <v>4682</v>
+        <v>4692</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5698,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>4688</v>
+        <v>4698</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5718,10 +5688,10 @@
         <v>51744</v>
       </c>
       <c r="D220" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E220" t="n">
-        <v>4700</v>
+        <v>4711</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5744,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="E221" t="n">
-        <v>4713</v>
+        <v>4724</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5764,10 +5734,10 @@
         <v>52412</v>
       </c>
       <c r="D222" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E222" t="n">
-        <v>4723</v>
+        <v>4735</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5790,7 +5760,7 @@
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4730</v>
+        <v>4742</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5813,7 +5783,7 @@
         <v>17</v>
       </c>
       <c r="E224" t="n">
-        <v>4747</v>
+        <v>4759</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5836,7 +5806,7 @@
         <v>14</v>
       </c>
       <c r="E225" t="n">
-        <v>4761</v>
+        <v>4773</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5859,7 +5829,7 @@
         <v>22</v>
       </c>
       <c r="E226" t="n">
-        <v>4783</v>
+        <v>4795</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5879,10 +5849,10 @@
         <v>54107</v>
       </c>
       <c r="D227" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E227" t="n">
-        <v>4800</v>
+        <v>4813</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5905,7 +5875,7 @@
         <v>11</v>
       </c>
       <c r="E228" t="n">
-        <v>4811</v>
+        <v>4824</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
@@ -5928,13 +5898,13 @@
         <v>19</v>
       </c>
       <c r="E229" t="n">
-        <v>4830</v>
+        <v>4843</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="230">
@@ -5948,16 +5918,16 @@
         <v>55889</v>
       </c>
       <c r="D230" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E230" t="n">
-        <v>4843</v>
+        <v>4857</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="231">
@@ -5974,13 +5944,13 @@
         <v>11</v>
       </c>
       <c r="E231" t="n">
-        <v>4854</v>
+        <v>4868</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="232">
@@ -5994,16 +5964,16 @@
         <v>57223</v>
       </c>
       <c r="D232" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E232" t="n">
-        <v>4867</v>
+        <v>4882</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="233">
@@ -6020,13 +5990,13 @@
         <v>25</v>
       </c>
       <c r="E233" t="n">
-        <v>4892</v>
+        <v>4907</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="234">
@@ -6040,16 +6010,16 @@
         <v>59699</v>
       </c>
       <c r="D234" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E234" t="n">
-        <v>4921</v>
+        <v>4938</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="235">
@@ -6066,13 +6036,13 @@
         <v>38</v>
       </c>
       <c r="E235" t="n">
-        <v>4959</v>
+        <v>4976</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="236">
@@ -6086,16 +6056,16 @@
         <v>62897</v>
       </c>
       <c r="D236" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E236" t="n">
-        <v>4993</v>
+        <v>5012</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
       </c>
       <c r="G236" t="n">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="237">
@@ -6109,16 +6079,16 @@
         <v>64149</v>
       </c>
       <c r="D237" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E237" t="n">
-        <v>5020</v>
+        <v>5040</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
       </c>
       <c r="G237" t="n">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="238">
@@ -6132,16 +6102,16 @@
         <v>64957</v>
       </c>
       <c r="D238" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E238" t="n">
-        <v>5057</v>
+        <v>5078</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
       </c>
       <c r="G238" t="n">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="239">
@@ -6155,16 +6125,16 @@
         <v>67521</v>
       </c>
       <c r="D239" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E239" t="n">
-        <v>5117</v>
+        <v>5140</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
       </c>
       <c r="G239" t="n">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="240">
@@ -6172,22 +6142,22 @@
         <v>44117</v>
       </c>
       <c r="B240" t="n">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="C240" t="n">
-        <v>70213</v>
+        <v>70214</v>
       </c>
       <c r="D240" t="n">
         <v>49</v>
       </c>
       <c r="E240" t="n">
-        <v>5166</v>
+        <v>5189</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
       </c>
       <c r="G240" t="n">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="241">
@@ -6195,22 +6165,22 @@
         <v>44118</v>
       </c>
       <c r="B241" t="n">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="C241" t="n">
-        <v>73213</v>
+        <v>73217</v>
       </c>
       <c r="D241" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E241" t="n">
-        <v>5235</v>
+        <v>5259</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
       </c>
       <c r="G241" t="n">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="242">
@@ -6218,22 +6188,22 @@
         <v>44119</v>
       </c>
       <c r="B242" t="n">
-        <v>3394</v>
+        <v>3402</v>
       </c>
       <c r="C242" t="n">
-        <v>76607</v>
+        <v>76619</v>
       </c>
       <c r="D242" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E242" t="n">
-        <v>5301</v>
+        <v>5328</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
       </c>
       <c r="G242" t="n">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="243">
@@ -6244,19 +6214,19 @@
         <v>3691</v>
       </c>
       <c r="C243" t="n">
-        <v>80298</v>
+        <v>80310</v>
       </c>
       <c r="D243" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E243" t="n">
-        <v>5372</v>
+        <v>5404</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
       </c>
       <c r="G243" t="n">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="244">
@@ -6264,22 +6234,22 @@
         <v>44121</v>
       </c>
       <c r="B244" t="n">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C244" t="n">
-        <v>82678</v>
+        <v>82689</v>
       </c>
       <c r="D244" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E244" t="n">
-        <v>5457</v>
+        <v>5493</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
       </c>
       <c r="G244" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="245">
@@ -6290,19 +6260,19 @@
         <v>1790</v>
       </c>
       <c r="C245" t="n">
-        <v>84468</v>
+        <v>84479</v>
       </c>
       <c r="D245" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E245" t="n">
-        <v>5516</v>
+        <v>5555</v>
       </c>
       <c r="F245" t="n">
         <v>5</v>
       </c>
       <c r="G245" t="n">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="246">
@@ -6313,19 +6283,19 @@
         <v>5411</v>
       </c>
       <c r="C246" t="n">
-        <v>89879</v>
+        <v>89890</v>
       </c>
       <c r="D246" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E246" t="n">
-        <v>5639</v>
+        <v>5680</v>
       </c>
       <c r="F246" t="n">
         <v>11</v>
       </c>
       <c r="G246" t="n">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="247">
@@ -6333,22 +6303,22 @@
         <v>44124</v>
       </c>
       <c r="B247" t="n">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="C247" t="n">
-        <v>95551</v>
+        <v>95563</v>
       </c>
       <c r="D247" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E247" t="n">
-        <v>5746</v>
+        <v>5790</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="248">
@@ -6356,22 +6326,22 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6465</v>
+        <v>6466</v>
       </c>
       <c r="C248" t="n">
-        <v>102016</v>
+        <v>102029</v>
       </c>
       <c r="D248" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E248" t="n">
-        <v>5837</v>
+        <v>5886</v>
       </c>
       <c r="F248" t="n">
         <v>9</v>
       </c>
       <c r="G248" t="n">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="249">
@@ -6379,22 +6349,22 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6773</v>
+        <v>6771</v>
       </c>
       <c r="C249" t="n">
-        <v>108789</v>
+        <v>108800</v>
       </c>
       <c r="D249" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E249" t="n">
-        <v>5943</v>
+        <v>6003</v>
       </c>
       <c r="F249" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G249" t="n">
-        <v>1898</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="250">
@@ -6402,22 +6372,22 @@
         <v>44127</v>
       </c>
       <c r="B250" t="n">
-        <v>7470</v>
+        <v>7472</v>
       </c>
       <c r="C250" t="n">
-        <v>116259</v>
+        <v>116272</v>
       </c>
       <c r="D250" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E250" t="n">
-        <v>6065</v>
+        <v>6133</v>
       </c>
       <c r="F250" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G250" t="n">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="251">
@@ -6425,22 +6395,22 @@
         <v>44128</v>
       </c>
       <c r="B251" t="n">
-        <v>4645</v>
+        <v>4648</v>
       </c>
       <c r="C251" t="n">
-        <v>120904</v>
+        <v>120920</v>
       </c>
       <c r="D251" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E251" t="n">
-        <v>6157</v>
+        <v>6239</v>
       </c>
       <c r="F251" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G251" t="n">
-        <v>1934</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="252">
@@ -6448,22 +6418,22 @@
         <v>44129</v>
       </c>
       <c r="B252" t="n">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C252" t="n">
-        <v>124089</v>
+        <v>124106</v>
       </c>
       <c r="D252" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="E252" t="n">
-        <v>6262</v>
+        <v>6366</v>
       </c>
       <c r="F252" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G252" t="n">
-        <v>1948</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="253">
@@ -6471,22 +6441,22 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>9641</v>
+        <v>9923</v>
       </c>
       <c r="C253" t="n">
-        <v>133730</v>
+        <v>134029</v>
       </c>
       <c r="D253" t="n">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E253" t="n">
-        <v>6363</v>
+        <v>6506</v>
       </c>
       <c r="F253" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G253" t="n">
-        <v>1956</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="254">
@@ -6494,22 +6464,22 @@
         <v>44131</v>
       </c>
       <c r="B254" t="n">
-        <v>7720</v>
+        <v>9313</v>
       </c>
       <c r="C254" t="n">
-        <v>141450</v>
+        <v>143342</v>
       </c>
       <c r="D254" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="E254" t="n">
-        <v>6415</v>
+        <v>6614</v>
       </c>
       <c r="F254" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G254" t="n">
-        <v>1978</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="255">
@@ -6517,22 +6487,22 @@
         <v>44132</v>
       </c>
       <c r="B255" t="n">
-        <v>3566</v>
+        <v>7478</v>
       </c>
       <c r="C255" t="n">
-        <v>145016</v>
+        <v>150820</v>
       </c>
       <c r="D255" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E255" t="n">
-        <v>6436</v>
+        <v>6685</v>
       </c>
       <c r="F255" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G255" t="n">
-        <v>1985</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="256">
@@ -6540,22 +6510,45 @@
         <v>44133</v>
       </c>
       <c r="B256" t="n">
-        <v>28</v>
+        <v>3417</v>
       </c>
       <c r="C256" t="n">
-        <v>145044</v>
+        <v>154237</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E256" t="n">
-        <v>6436</v>
+        <v>6707</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G256" t="n">
-        <v>1985</v>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B257" t="n">
+        <v>14</v>
+      </c>
+      <c r="C257" t="n">
+        <v>154251</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>6707</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>2037</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -6645,22 +6638,22 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>612</v>
+        <v>635</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>136.7</v>
+        <v>141.8</v>
       </c>
       <c r="E8" t="n">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>119.5</v>
+        <v>127.1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -6669,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1120</v>
+        <v>1175</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6680,31 +6673,31 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>5158</v>
+        <v>5582</v>
       </c>
       <c r="C9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5589</v>
+      </c>
+      <c r="F9" t="n">
         <v>7.2</v>
       </c>
-      <c r="D9" t="n">
-        <v>1185</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5216</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.1</v>
-      </c>
       <c r="G9" t="n">
-        <v>1272.5</v>
+        <v>1363.5</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>10377</v>
+        <v>11174</v>
       </c>
       <c r="K9" t="n">
         <v>7.2</v>
@@ -6715,31 +6708,31 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>14110</v>
+        <v>14956</v>
       </c>
       <c r="C10" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="D10" t="n">
-        <v>2611.2</v>
+        <v>2767.8</v>
       </c>
       <c r="E10" t="n">
-        <v>14185</v>
+        <v>15065</v>
       </c>
       <c r="F10" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2744.2</v>
+        <v>2914.4</v>
       </c>
       <c r="H10" t="n">
         <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>28304</v>
+        <v>30030</v>
       </c>
       <c r="K10" t="n">
         <v>19.5</v>
@@ -6750,34 +6743,34 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>12812</v>
+        <v>13603</v>
       </c>
       <c r="C11" t="n">
         <v>17.9</v>
       </c>
       <c r="D11" t="n">
-        <v>2079.9</v>
+        <v>2208.3</v>
       </c>
       <c r="E11" t="n">
-        <v>12505</v>
+        <v>13278</v>
       </c>
       <c r="F11" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>2070</v>
+        <v>2198</v>
       </c>
       <c r="H11" t="n">
         <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>25331</v>
+        <v>26895</v>
       </c>
       <c r="K11" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="12">
@@ -6785,31 +6778,31 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>11095</v>
+        <v>11784</v>
       </c>
       <c r="C12" t="n">
         <v>15.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1823.5</v>
+        <v>1936.7</v>
       </c>
       <c r="E12" t="n">
-        <v>11968</v>
+        <v>12751</v>
       </c>
       <c r="F12" t="n">
         <v>16.3</v>
       </c>
       <c r="G12" t="n">
-        <v>1989.5</v>
+        <v>2119.7</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>19.6</v>
+        <v>18</v>
       </c>
       <c r="J12" t="n">
-        <v>23073</v>
+        <v>24544</v>
       </c>
       <c r="K12" t="n">
         <v>15.9</v>
@@ -6820,31 +6813,31 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>12151</v>
+        <v>12871</v>
       </c>
       <c r="C13" t="n">
         <v>16.9</v>
       </c>
       <c r="D13" t="n">
-        <v>1870.3</v>
+        <v>1981.1</v>
       </c>
       <c r="E13" t="n">
-        <v>12375</v>
+        <v>13193</v>
       </c>
       <c r="F13" t="n">
         <v>16.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1938.1</v>
+        <v>2066.2</v>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>24532</v>
+        <v>26070</v>
       </c>
       <c r="K13" t="n">
         <v>16.9</v>
@@ -6855,31 +6848,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>7355</v>
+        <v>7820</v>
       </c>
       <c r="C14" t="n">
         <v>10.3</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.7</v>
+        <v>1699.8</v>
       </c>
       <c r="E14" t="n">
-        <v>6571</v>
+        <v>6989</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>1380</v>
+        <v>1467.8</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>9.8</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>13931</v>
+        <v>14814</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -6890,31 +6883,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>4842</v>
+        <v>5124</v>
       </c>
       <c r="C15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D15" t="n">
-        <v>1468</v>
+        <v>1553.5</v>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>4698</v>
       </c>
       <c r="F15" t="n">
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>1151.7</v>
+        <v>1239.3</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>9211</v>
+        <v>9825</v>
       </c>
       <c r="K15" t="n">
         <v>6.4</v>
@@ -6925,22 +6918,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>3526</v>
+        <v>3733</v>
       </c>
       <c r="C16" t="n">
         <v>4.9</v>
       </c>
       <c r="D16" t="n">
-        <v>2089.3</v>
+        <v>2212</v>
       </c>
       <c r="E16" t="n">
-        <v>5572</v>
+        <v>5922</v>
       </c>
       <c r="F16" t="n">
         <v>7.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2016.3</v>
+        <v>2143</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6949,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9098</v>
+        <v>9655</v>
       </c>
       <c r="K16" t="n">
         <v>6.3</v>
@@ -6960,17 +6953,17 @@
         <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="n">
@@ -6980,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -7003,7 +6996,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -7058,16 +7051,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>6640</v>
+        <v>7017</v>
       </c>
       <c r="C8" t="n">
-        <v>979.1</v>
+        <v>1034.6</v>
       </c>
       <c r="E8" t="n">
-        <v>3217</v>
+        <v>3430</v>
       </c>
       <c r="F8" t="n">
-        <v>474.3</v>
+        <v>505.7</v>
       </c>
     </row>
     <row r="9">
@@ -7075,16 +7068,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C9" t="n">
-        <v>1852</v>
+        <v>1988.2</v>
       </c>
       <c r="E9" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F9" t="n">
-        <v>1183</v>
+        <v>1238.8</v>
       </c>
     </row>
     <row r="10">
@@ -7092,16 +7085,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="C10" t="n">
-        <v>1245.6</v>
+        <v>1323.5</v>
       </c>
       <c r="E10" t="n">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F10" t="n">
-        <v>733.2</v>
+        <v>773.1</v>
       </c>
     </row>
     <row r="11">
@@ -7109,16 +7102,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>11819</v>
+        <v>12610</v>
       </c>
       <c r="C11" t="n">
-        <v>1142</v>
+        <v>1218.4</v>
       </c>
       <c r="E11" t="n">
-        <v>6510</v>
+        <v>6966</v>
       </c>
       <c r="F11" t="n">
-        <v>629</v>
+        <v>673.1</v>
       </c>
     </row>
     <row r="12">
@@ -7126,16 +7119,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>2543</v>
+        <v>2663</v>
       </c>
       <c r="C12" t="n">
-        <v>882.6</v>
+        <v>924.2</v>
       </c>
       <c r="E12" t="n">
-        <v>1075</v>
+        <v>1141</v>
       </c>
       <c r="F12" t="n">
-        <v>373.1</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13">
@@ -7143,16 +7136,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2525</v>
+        <v>2625</v>
       </c>
       <c r="C13" t="n">
-        <v>1296.4</v>
+        <v>1347.8</v>
       </c>
       <c r="E13" t="n">
-        <v>809</v>
+        <v>867</v>
       </c>
       <c r="F13" t="n">
-        <v>415.4</v>
+        <v>445.1</v>
       </c>
     </row>
     <row r="14">
@@ -7160,16 +7153,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="C14" t="n">
-        <v>1266.4</v>
+        <v>1362.8</v>
       </c>
       <c r="E14" t="n">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="F14" t="n">
-        <v>784.3</v>
+        <v>836.4</v>
       </c>
     </row>
     <row r="15">
@@ -7177,16 +7170,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>8237</v>
+        <v>8955</v>
       </c>
       <c r="C15" t="n">
-        <v>2584.4</v>
+        <v>2809.7</v>
       </c>
       <c r="E15" t="n">
-        <v>4760</v>
+        <v>5249</v>
       </c>
       <c r="F15" t="n">
-        <v>1493.5</v>
+        <v>1646.9</v>
       </c>
     </row>
     <row r="16">
@@ -7194,16 +7187,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>19750</v>
+        <v>20947</v>
       </c>
       <c r="C16" t="n">
-        <v>3954.1</v>
+        <v>4193.8</v>
       </c>
       <c r="E16" t="n">
-        <v>8951</v>
+        <v>9802</v>
       </c>
       <c r="F16" t="n">
-        <v>1792.1</v>
+        <v>1962.4</v>
       </c>
     </row>
     <row r="17">
@@ -7211,16 +7204,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="C17" t="n">
-        <v>1066.8</v>
+        <v>1121.2</v>
       </c>
       <c r="E17" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F17" t="n">
-        <v>455.4</v>
+        <v>477.7</v>
       </c>
     </row>
     <row r="18">
@@ -7228,16 +7221,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>2372</v>
+        <v>2481</v>
       </c>
       <c r="C18" t="n">
-        <v>1195.7</v>
+        <v>1250.6</v>
       </c>
       <c r="E18" t="n">
-        <v>983</v>
+        <v>1066</v>
       </c>
       <c r="F18" t="n">
-        <v>495.5</v>
+        <v>537.4</v>
       </c>
     </row>
     <row r="19">
@@ -7245,16 +7238,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>1693</v>
+        <v>1830</v>
       </c>
       <c r="C19" t="n">
-        <v>2305.9</v>
+        <v>2492.5</v>
       </c>
       <c r="E19" t="n">
-        <v>985</v>
+        <v>1079</v>
       </c>
       <c r="F19" t="n">
-        <v>1341.6</v>
+        <v>1469.6</v>
       </c>
     </row>
     <row r="20">
@@ -7262,16 +7255,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>4155</v>
+        <v>4481</v>
       </c>
       <c r="C20" t="n">
-        <v>1014.5</v>
+        <v>1094.1</v>
       </c>
       <c r="E20" t="n">
-        <v>2399</v>
+        <v>2576</v>
       </c>
       <c r="F20" t="n">
-        <v>585.8</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21">
@@ -7279,16 +7272,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>3791</v>
+        <v>4171</v>
       </c>
       <c r="C21" t="n">
-        <v>2143.6</v>
+        <v>2358.5</v>
       </c>
       <c r="E21" t="n">
-        <v>2075</v>
+        <v>2358</v>
       </c>
       <c r="F21" t="n">
-        <v>1173.3</v>
+        <v>1333.3</v>
       </c>
     </row>
     <row r="22">
@@ -7296,16 +7289,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="C22" t="n">
-        <v>934.7</v>
+        <v>983.3</v>
       </c>
       <c r="E22" t="n">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F22" t="n">
-        <v>393.3</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23">
@@ -7313,16 +7306,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="C23" t="n">
-        <v>996.3</v>
+        <v>1091.4</v>
       </c>
       <c r="E23" t="n">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="F23" t="n">
-        <v>473</v>
+        <v>525.9</v>
       </c>
     </row>
     <row r="24">
@@ -7330,16 +7323,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>6572</v>
+        <v>7104</v>
       </c>
       <c r="C24" t="n">
-        <v>1294.5</v>
+        <v>1399.3</v>
       </c>
       <c r="E24" t="n">
-        <v>3822</v>
+        <v>4187</v>
       </c>
       <c r="F24" t="n">
-        <v>752.8</v>
+        <v>824.7</v>
       </c>
     </row>
     <row r="25">
@@ -7347,16 +7340,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="C25" t="n">
-        <v>761.1</v>
+        <v>809.8</v>
       </c>
       <c r="E25" t="n">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="F25" t="n">
-        <v>420.8</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26">
@@ -7364,16 +7357,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>2261</v>
+        <v>2401</v>
       </c>
       <c r="C26" t="n">
-        <v>827.6</v>
+        <v>878.9</v>
       </c>
       <c r="E26" t="n">
-        <v>1140</v>
+        <v>1232</v>
       </c>
       <c r="F26" t="n">
-        <v>417.3</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27">
@@ -7381,16 +7374,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>2919</v>
+        <v>3063</v>
       </c>
       <c r="C27" t="n">
-        <v>1833.9</v>
+        <v>1924.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1590</v>
+        <v>1613</v>
       </c>
       <c r="F27" t="n">
-        <v>999</v>
+        <v>1013.4</v>
       </c>
     </row>
     <row r="28">
@@ -7398,16 +7391,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>2516</v>
+        <v>2705</v>
       </c>
       <c r="C28" t="n">
-        <v>910</v>
+        <v>978.4</v>
       </c>
       <c r="E28" t="n">
-        <v>1460</v>
+        <v>1601</v>
       </c>
       <c r="F28" t="n">
-        <v>528.1</v>
+        <v>579.1</v>
       </c>
     </row>
     <row r="29">
@@ -7415,16 +7408,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>6808</v>
+        <v>7182</v>
       </c>
       <c r="C29" t="n">
-        <v>1926.7</v>
+        <v>2032.6</v>
       </c>
       <c r="E29" t="n">
-        <v>2657</v>
+        <v>2917</v>
       </c>
       <c r="F29" t="n">
-        <v>752</v>
+        <v>825.5</v>
       </c>
     </row>
     <row r="30">
@@ -7432,10 +7425,10 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C30" t="n">
-        <v>1111.6</v>
+        <v>1147.3</v>
       </c>
       <c r="E30" t="n">
         <v>201</v>
@@ -7449,16 +7442,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>23067</v>
+        <v>24375</v>
       </c>
       <c r="C31" t="n">
-        <v>2886.5</v>
+        <v>3050.1</v>
       </c>
       <c r="E31" t="n">
-        <v>9822</v>
+        <v>10678</v>
       </c>
       <c r="F31" t="n">
-        <v>1229.1</v>
+        <v>1336.2</v>
       </c>
     </row>
     <row r="32">
@@ -7466,16 +7459,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>11266</v>
+        <v>12109</v>
       </c>
       <c r="C32" t="n">
-        <v>3275.4</v>
+        <v>3520.5</v>
       </c>
       <c r="E32" t="n">
-        <v>7165</v>
+        <v>7699</v>
       </c>
       <c r="F32" t="n">
-        <v>2083.1</v>
+        <v>2238.4</v>
       </c>
     </row>
     <row r="33">
@@ -7483,16 +7476,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1559</v>
+        <v>1629</v>
       </c>
       <c r="C33" t="n">
-        <v>1229.1</v>
+        <v>1284.3</v>
       </c>
       <c r="E33" t="n">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="F33" t="n">
-        <v>634.7</v>
+        <v>648.9</v>
       </c>
     </row>
     <row r="34">
@@ -7500,16 +7493,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>20837</v>
+        <v>21955</v>
       </c>
       <c r="C34" t="n">
-        <v>1370</v>
+        <v>1443.5</v>
       </c>
       <c r="E34" t="n">
-        <v>9602</v>
+        <v>10230</v>
       </c>
       <c r="F34" t="n">
-        <v>631.3</v>
+        <v>672.6</v>
       </c>
     </row>
     <row r="35">
@@ -7517,16 +7510,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>145044</v>
+        <v>154251</v>
       </c>
       <c r="C35" t="n">
-        <v>1689.9</v>
+        <v>1797.2</v>
       </c>
       <c r="E35" t="n">
-        <v>71803</v>
+        <v>77618</v>
       </c>
       <c r="F35" t="n">
-        <v>836.6</v>
+        <v>904.3</v>
       </c>
     </row>
     <row r="37">
@@ -7546,7 +7539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7605,25 +7598,25 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F8" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="G8" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="9">
@@ -7631,7 +7624,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
         <v>29</v>
@@ -7640,13 +7633,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="H9" t="n">
         <v>7.1</v>
@@ -7657,25 +7650,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F10" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="G10" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="H10" t="n">
-        <v>13.9</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -7683,25 +7676,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F11" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="G11" t="n">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="H11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -7709,25 +7702,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C12" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F12" t="n">
-        <v>37.8</v>
+        <v>38.6</v>
       </c>
       <c r="G12" t="n">
-        <v>44.5</v>
+        <v>45.2</v>
       </c>
       <c r="H12" t="n">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="13">
@@ -7735,25 +7728,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="C13" t="n">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="F13" t="n">
-        <v>70.6</v>
+        <v>73.3</v>
       </c>
       <c r="G13" t="n">
-        <v>88.7</v>
+        <v>91.9</v>
       </c>
       <c r="H13" t="n">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="14">
@@ -7761,25 +7754,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>778</v>
+        <v>814</v>
       </c>
       <c r="C14" t="n">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1172</v>
+        <v>1221</v>
       </c>
       <c r="F14" t="n">
-        <v>125.2</v>
+        <v>130.4</v>
       </c>
       <c r="G14" t="n">
-        <v>169.1</v>
+        <v>176.9</v>
       </c>
       <c r="H14" t="n">
-        <v>82.3</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="15">
@@ -7787,25 +7780,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>976</v>
+        <v>1021</v>
       </c>
       <c r="C15" t="n">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1630</v>
+        <v>1705</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9</v>
+        <v>240.5</v>
       </c>
       <c r="G15" t="n">
-        <v>295.9</v>
+        <v>309.5</v>
       </c>
       <c r="H15" t="n">
-        <v>172.5</v>
+        <v>180.4</v>
       </c>
     </row>
     <row r="16">
@@ -7813,25 +7806,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>1007</v>
+        <v>1063</v>
       </c>
       <c r="C16" t="n">
-        <v>942</v>
+        <v>981</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1949</v>
+        <v>2044</v>
       </c>
       <c r="F16" t="n">
-        <v>437.9</v>
+        <v>459.2</v>
       </c>
       <c r="G16" t="n">
-        <v>596.7</v>
+        <v>629.9</v>
       </c>
       <c r="H16" t="n">
-        <v>340.9</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17">
@@ -7871,7 +7864,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7983,22 +7976,22 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -8032,7 +8025,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>13</v>
@@ -8041,13 +8034,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -8058,25 +8051,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F14" t="n">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>23.9</v>
       </c>
       <c r="H14" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15">
@@ -8084,25 +8077,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F15" t="n">
-        <v>55.7</v>
+        <v>57.1</v>
       </c>
       <c r="G15" t="n">
-        <v>79.7</v>
+        <v>81.9</v>
       </c>
       <c r="H15" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="16">
@@ -8110,25 +8103,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="C16" t="n">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1390</v>
+        <v>1423</v>
       </c>
       <c r="F16" t="n">
-        <v>312.3</v>
+        <v>319.7</v>
       </c>
       <c r="G16" t="n">
-        <v>430.8</v>
+        <v>439.1</v>
       </c>
       <c r="H16" t="n">
-        <v>239.9</v>
+        <v>246.8</v>
       </c>
     </row>
     <row r="18">
@@ -8148,7 +8141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -8206,53 +8199,53 @@
         <v>41</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C8" t="s">
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>117.073400893827</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>63.8448143413442</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>192.86147149764</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="n">
+        <v>439.764633013317</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>495.509445648808</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -8264,13 +8257,13 @@
         <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>210.015570119854</v>
+        <v>320.454792338053</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>135.785928956802</v>
+        <v>238.983234963971</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>226.30988159467</v>
+        <v>103.19730600717</v>
       </c>
     </row>
     <row r="11">
@@ -8278,25 +8271,25 @@
         <v>44</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
       </c>
       <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
         <v>102</v>
       </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
       <c r="F11" s="2" t="n">
-        <v>513.054879480414</v>
+        <v>591.897211242375</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>123.577625396506</v>
+        <v>96.1374020871961</v>
       </c>
     </row>
     <row r="12">
@@ -8304,25 +8297,25 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>105</v>
       </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
       <c r="F12" s="2" t="n">
-        <v>105.507198089764</v>
+        <v>107.936640151042</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>274.874016075965</v>
+        <v>314.786278511238</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>117.307345244541</v>
+        <v>82.9480932350451</v>
       </c>
     </row>
     <row r="13">
@@ -8330,25 +8323,25 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>108</v>
       </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
       <c r="F13" s="2" t="n">
-        <v>271.094544222298</v>
+        <v>372.241561668874</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1076.67662733742</v>
+        <v>1076.16319070064</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>138.114455295072</v>
+        <v>75.4751856073442</v>
       </c>
     </row>
     <row r="14">
@@ -8356,25 +8349,25 @@
         <v>47</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
         <v>110</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>111</v>
       </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
       <c r="F14" s="2" t="n">
-        <v>588.879045286362</v>
+        <v>549.794152900099</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1107.40528427745</v>
+        <v>1070.92605138361</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>112.043358173954</v>
+        <v>106.832039189119</v>
       </c>
     </row>
     <row r="15">
@@ -8382,51 +8375,45 @@
         <v>48</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>1079.02382700478</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>405.379117327761</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>176.96116267249</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>755.185392808521</v>
+        <v>998.238167694402</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>438.856410667094</v>
+        <v>827.260350764795</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>407.023304236406</v>
+        <v>365.980619844638</v>
       </c>
     </row>
     <row r="17">
@@ -8434,25 +8421,25 @@
         <v>50</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>245.031309556221</v>
+        <v>272.257010618023</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>361.359305002104</v>
+        <v>574.21478603074</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>123.753186644556</v>
+        <v>96.5274855827538</v>
       </c>
     </row>
     <row r="18">
@@ -8460,48 +8447,42 @@
         <v>51</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>246.497865197425</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>525.761295298394</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>238.432495375014</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1011.99961862733</v>
+        <v>1171.35891254307</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0</v>
+        <v>2165.65194295755</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0</v>
@@ -8512,25 +8493,25 @@
         <v>53</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>402.874325185505</v>
+        <v>532.77077427562</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>124.768957678663</v>
+        <v>70.5640484718855</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>129.896449090114</v>
+        <v>96.4456717868331</v>
       </c>
     </row>
     <row r="21">
@@ -8538,71 +8519,71 @@
         <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>517.953067571388</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>726.604467062482</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>179.247950240317</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>233.671887652407</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>580.709344561923</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>161.950813224441</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>274.834174572554</v>
+        <v>266.906265690653</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>621.019529082212</v>
+        <v>615.734256494279</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>200.840358341481</v>
+        <v>187.627176871647</v>
       </c>
     </row>
     <row r="24">
@@ -8610,16 +8591,16 @@
         <v>57</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -8630,25 +8611,25 @@
         <v>58</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>295.15434620873</v>
+        <v>339.061604322426</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>591.528338476174</v>
+        <v>630.557012355015</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>187.825493041919</v>
+        <v>117.086021636521</v>
       </c>
     </row>
     <row r="26">
@@ -8656,25 +8637,25 @@
         <v>59</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>211.205224126445</v>
+        <v>372.628974282012</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>183.386165142719</v>
+        <v>264.647100595181</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>117.498920181263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8682,16 +8663,16 @@
         <v>60</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -8702,25 +8683,25 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>220.275470933765</v>
+        <v>298.764431841199</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>461.529558146937</v>
+        <v>543.997222141844</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>163.850227147776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8728,51 +8709,45 @@
         <v>62</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>367.798424505256</v>
+        <v>428.183240468806</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>757.554963906349</v>
+        <v>930.475118711059</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>145.472511184915</v>
+        <v>85.0876952213652</v>
       </c>
     </row>
     <row r="31">
@@ -8780,16 +8755,16 @@
         <v>64</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -8800,22 +8775,22 @@
         <v>65</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1415.30142024393</v>
+        <v>1675.21914203893</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>188.106002238665</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
@@ -8826,25 +8801,25 @@
         <v>66</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>399.725632110504</v>
+        <v>417.070728572893</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>164.778416392693</v>
+        <v>138.76077169911</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>394.995151257125</v>
+        <v>290.13615900723</v>
       </c>
     </row>
     <row r="34">
@@ -8852,25 +8827,25 @@
         <v>67</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>388.371089990059</v>
+        <v>452.343507555714</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>725.064564145991</v>
+        <v>836.375255758175</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>309.342471373494</v>
+        <v>201.253412300588</v>
       </c>
     </row>
   </sheetData>
